--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -44,42 +44,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FEE1E0"/>
+        <fgColor rgb="00CFC9EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F9FECC"/>
+        <fgColor rgb="00EECAF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F3D7F6"/>
+        <fgColor rgb="00FAF1F4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6D8F1"/>
+        <fgColor rgb="00F6DEFA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F9E2F2"/>
+        <fgColor rgb="00CEDEDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEDCEB"/>
+        <fgColor rgb="00DFF8FC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEF8E5"/>
+        <fgColor rgb="00FAF2FC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F3D3DE"/>
+        <fgColor rgb="00E2EADE"/>
       </patternFill>
     </fill>
   </fills>
@@ -581,62 +581,62 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Anuja Verma</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>Mamta Anand</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Kundan</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>Vikas Dubey</t>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>Mamta</t>
         </is>
       </c>
     </row>
@@ -648,62 +648,62 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="I3" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
           <t>Manishi</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>Narendra Kumar</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>A. Hasan</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>Pooja Bhatia</t>
-        </is>
-      </c>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t>Vikas Dubey</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="inlineStr">
-        <is>
-          <t>Ashish</t>
         </is>
       </c>
     </row>
@@ -715,62 +715,62 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>Manpreet</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>Himanshu</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>Anuja Verma</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="K4" s="7" t="inlineStr">
+      <c r="L4" s="9" t="inlineStr">
         <is>
           <t>Ashish</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
+          <t>Anuja</t>
         </is>
       </c>
     </row>
@@ -782,62 +782,62 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Pooja Bhatia</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>A. Hasan</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="M5" s="10" t="inlineStr">
         <is>
           <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
-          <t>Anuja Verma</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
         </is>
       </c>
     </row>
@@ -847,64 +847,64 @@
           <t>Period 5</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="inlineStr">
         <is>
           <t>Himanshu</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Anuja Verma</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>Mamta Anand</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr">
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="inlineStr">
         <is>
           <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="M6" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
         </is>
       </c>
     </row>
@@ -916,62 +916,62 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Vikas Dubey</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Narendra Kumar</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>Anuja Verma</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="K7" s="10" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>Pooja Bhatia</t>
-        </is>
-      </c>
-      <c r="M7" s="10" t="inlineStr">
-        <is>
-          <t>Kundan</t>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
         </is>
       </c>
     </row>
@@ -981,60 +981,64 @@
           <t>Period 7</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Anuja Verma</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>Pooja Bhatia</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>A. Hasan</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>Gunjan</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>Mamta Anand</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>Narendra Kumar</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>Hasan</t>
         </is>
       </c>
     </row>
@@ -1046,43 +1050,47 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>Narendra Kumar</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>NK Giri</t>
-        </is>
-      </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="10" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr"/>
     </row>
   </sheetData>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -44,42 +44,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFC9EE"/>
+        <fgColor rgb="00CBDEF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EECAF5"/>
+        <fgColor rgb="00F3F0DF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF1F4"/>
+        <fgColor rgb="00D7D6F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6DEFA"/>
+        <fgColor rgb="00EED0ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEDEDB"/>
+        <fgColor rgb="00D8E1CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFF8FC"/>
+        <fgColor rgb="00D7EFD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF2FC"/>
+        <fgColor rgb="00EEFEE3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EADE"/>
+        <fgColor rgb="00D1F1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDECEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBFFD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +141,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,62 +597,62 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Deepak</t>
+          <t>Tarun</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>Savita</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>Mamta</t>
         </is>
       </c>
     </row>
@@ -646,64 +662,64 @@
           <t>Period 2</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="J3" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="L3" s="12" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Narendra</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="I3" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>Manishi</t>
         </is>
       </c>
     </row>
@@ -715,62 +731,62 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
           <t>Manmeet</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="L4" s="8" t="inlineStr">
         <is>
           <t>Manpreet</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="inlineStr">
+      <c r="M4" s="11" t="inlineStr">
         <is>
           <t>Ashish</t>
-        </is>
-      </c>
-      <c r="M4" s="6" t="inlineStr">
-        <is>
-          <t>Anuja</t>
         </is>
       </c>
     </row>
@@ -780,64 +796,64 @@
           <t>Period 4</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>Anil</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>Giri</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>Hasan</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>Deepak</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="M5" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
         </is>
       </c>
     </row>
@@ -847,64 +863,64 @@
           <t>Period 5</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Anuja</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>Savita</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="L6" s="8" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Narendra</t>
         </is>
       </c>
-      <c r="M6" s="7" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
+      <c r="M6" s="8" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
         </is>
       </c>
     </row>
@@ -914,64 +930,64 @@
           <t>Period 6</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="J7" s="10" t="inlineStr">
         <is>
           <t>Nitin</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="I7" s="9" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="K7" s="6" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
+      <c r="M7" s="9" t="inlineStr">
+        <is>
+          <t>Anil</t>
         </is>
       </c>
     </row>
@@ -981,64 +997,64 @@
           <t>Period 7</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Narendra</t>
         </is>
       </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
           <t>Giri</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="J8" s="12" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="L8" s="6" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>Hasan</t>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="M8" s="10" t="inlineStr">
+        <is>
+          <t>Mamta</t>
         </is>
       </c>
     </row>
@@ -1050,48 +1066,64 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
           <t>Narendra</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>Manmeet</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -44,52 +44,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBDEF5"/>
+        <fgColor rgb="00F4CDD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F3F0DF"/>
+        <fgColor rgb="00D9DFF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7D6F1"/>
+        <fgColor rgb="00E6E0CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EED0ED"/>
+        <fgColor rgb="00F7CBCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8E1CB"/>
+        <fgColor rgb="00D1F8F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7EFD5"/>
+        <fgColor rgb="00ECFBCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEFEE3"/>
+        <fgColor rgb="00D9F0DE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1F1DE"/>
+        <fgColor rgb="00DCD0F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDECEF"/>
+        <fgColor rgb="00F2CFE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EBFFD3"/>
+        <fgColor rgb="00D9D5CF"/>
       </patternFill>
     </fill>
   </fills>
@@ -597,62 +597,62 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Narendra</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>Savita</t>
+      <c r="M2" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
         </is>
       </c>
     </row>
@@ -662,64 +662,64 @@
           <t>Period 2</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="J3" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>Anil</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>Mamta</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="J3" s="11" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="L3" s="12" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
         </is>
       </c>
     </row>
@@ -729,64 +729,64 @@
           <t>Period 3</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Anuja</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Deepak</t>
         </is>
       </c>
       <c r="E4" s="10" t="inlineStr">
         <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="L4" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="K4" s="9" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="L4" s="8" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="M4" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
         </is>
       </c>
     </row>
@@ -796,64 +796,64 @@
           <t>Period 4</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Ashish</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="K5" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="M5" s="8" t="inlineStr">
         <is>
           <t>Anil</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
         </is>
       </c>
     </row>
@@ -863,64 +863,64 @@
           <t>Period 5</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="inlineStr">
         <is>
           <t>Anuja</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="H6" s="10" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="I6" s="11" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="M6" s="8" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
         </is>
       </c>
     </row>
@@ -930,64 +930,64 @@
           <t>Period 6</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>Anuja</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>Pooja</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="M7" s="10" t="inlineStr">
         <is>
           <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="J7" s="10" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="M7" s="9" t="inlineStr">
-        <is>
-          <t>Anil</t>
         </is>
       </c>
     </row>
@@ -997,64 +997,64 @@
           <t>Period 7</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>Narendra</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>Anuja</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="J8" s="12" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="M8" s="10" t="inlineStr">
-        <is>
-          <t>Mamta</t>
+      <c r="L8" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="M8" s="9" t="inlineStr">
+        <is>
+          <t>Savita</t>
         </is>
       </c>
     </row>
@@ -1064,64 +1064,64 @@
           <t>Period 8</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
         <is>
           <t>Vikas</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Giri</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
         </is>
       </c>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -44,52 +44,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CDD2"/>
+        <fgColor rgb="00D8EAE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9DFF7"/>
+        <fgColor rgb="00FCD5F7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E0CE"/>
+        <fgColor rgb="00D0EFF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F7CBCE"/>
+        <fgColor rgb="00F1F2D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1F8F3"/>
+        <fgColor rgb="00CFDCD9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ECFBCE"/>
+        <fgColor rgb="00D2CCEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9F0DE"/>
+        <fgColor rgb="00E2F9D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCD0F2"/>
+        <fgColor rgb="00EDDEFA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2CFE9"/>
+        <fgColor rgb="00CFC9ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D5CF"/>
+        <fgColor rgb="00CACDE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9C8E4"/>
       </patternFill>
     </fill>
   </fills>
@@ -111,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,62 +605,62 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>Prayas</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
           <t>Nitin</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="inlineStr">
+        <is>
+          <t>Anuja</t>
         </is>
       </c>
     </row>
@@ -662,64 +670,64 @@
           <t>Period 2</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="J3" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>Mamta</t>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>Deepak</t>
         </is>
       </c>
     </row>
@@ -729,64 +737,64 @@
           <t>Period 3</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>Prayas</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Pooja</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="G4" s="12" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Narendra</t>
         </is>
       </c>
-      <c r="J4" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>Giri</t>
         </is>
       </c>
-      <c r="L4" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="M4" s="6" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
+      <c r="L4" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
         </is>
       </c>
     </row>
@@ -796,64 +804,64 @@
           <t>Period 4</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Kundan</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Hasan</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
           <t>Giri</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="M5" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
         </is>
       </c>
     </row>
@@ -863,64 +871,64 @@
           <t>Period 5</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Gunjan</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="I6" s="9" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="J6" s="12" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="M6" s="7" t="inlineStr">
-        <is>
-          <t>Anuja</t>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="M6" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
         </is>
       </c>
     </row>
@@ -930,64 +938,64 @@
           <t>Period 6</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="K7" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Kundan</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="I7" s="11" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="K7" s="9" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="L7" s="6" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="M7" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
         </is>
       </c>
     </row>
@@ -997,64 +1005,64 @@
           <t>Period 7</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>Manishi</t>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Anuja</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="L8" s="8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="M8" s="9" t="inlineStr">
         <is>
           <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="K8" s="7" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="L8" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="M8" s="9" t="inlineStr">
-        <is>
-          <t>Savita</t>
         </is>
       </c>
     </row>
@@ -1064,64 +1072,64 @@
           <t>Period 8</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Prayas</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="K9" s="11" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="L9" s="10" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="M9" s="8" t="inlineStr">
         <is>
           <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="L9" s="7" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>Giri</t>
         </is>
       </c>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -44,57 +44,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8EAE8"/>
+        <fgColor rgb="00DEF7CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCD5F7"/>
+        <fgColor rgb="00CEF9ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0EFF8"/>
+        <fgColor rgb="00EBDED0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F1F2D0"/>
+        <fgColor rgb="00E8FCE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFDCD9"/>
+        <fgColor rgb="00D8FDE6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2CCEE"/>
+        <fgColor rgb="00EAD7CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2F9D3"/>
+        <fgColor rgb="00FFD9E4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDDEFA"/>
+        <fgColor rgb="00FBD1D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFC9ED"/>
+        <fgColor rgb="00FEF5E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CACDE4"/>
+        <fgColor rgb="00E8E3ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9C8E4"/>
+        <fgColor rgb="00CEF3E4"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,62 +605,62 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Narendra</t>
+          <t>Pooja</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Kundan</t>
+          <t>Anil</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>Deepak</t>
+          <t>Savita</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>Prayas</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>Anuja</t>
         </is>
       </c>
     </row>
@@ -672,62 +672,62 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>Ashish</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Rajesh</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="M3" s="12" t="inlineStr">
         <is>
           <t>Giri</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Deepak</t>
         </is>
       </c>
     </row>
@@ -739,62 +739,62 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Prayas</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="J4" s="10" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>Prayas</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>Pooja</t>
-        </is>
-      </c>
-      <c r="H4" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="L4" s="11" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
         </is>
       </c>
     </row>
@@ -806,62 +806,62 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr">
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Ashish</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>Giri</t>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>Kundan</t>
         </is>
       </c>
     </row>
@@ -871,64 +871,64 @@
           <t>Period 5</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Bhushan</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="I6" s="10" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>Nitin</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="H6" s="9" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="I6" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>Narendra</t>
+          <t>Pooja</t>
         </is>
       </c>
       <c r="M6" s="11" t="inlineStr">
         <is>
-          <t>Pooja</t>
+          <t>Manishi</t>
         </is>
       </c>
     </row>
@@ -938,64 +938,64 @@
           <t>Period 6</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Himanshu</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="H7" s="12" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
-        <is>
-          <t>Vikas</t>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>Tarun</t>
         </is>
       </c>
       <c r="J7" s="7" t="inlineStr">
         <is>
-          <t>Rajesh</t>
-        </is>
-      </c>
-      <c r="K7" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Kundan</t>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="L7" s="12" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>Deepak</t>
         </is>
       </c>
     </row>
@@ -1007,62 +1007,62 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>Ashish</t>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Tarun</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>Narendra</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
+          <t>Prayas</t>
+        </is>
+      </c>
+      <c r="J8" s="12" t="inlineStr">
+        <is>
+          <t>Giri</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="L8" s="11" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="M8" s="8" t="inlineStr">
+        <is>
           <t>Mamta</t>
-        </is>
-      </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="L8" s="8" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="M8" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
         </is>
       </c>
     </row>
@@ -1074,62 +1074,62 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>Prayas</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
-        </is>
-      </c>
-      <c r="E9" s="12" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>Manishi</t>
         </is>
       </c>
-      <c r="F9" s="13" t="inlineStr">
+      <c r="I9" s="12" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="J9" s="13" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="K9" s="12" t="inlineStr">
         <is>
           <t>Giri</t>
         </is>
       </c>
-      <c r="K9" s="11" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="L9" s="10" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="M9" s="8" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
+      <c r="L9" s="8" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="M9" s="9" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
         </is>
       </c>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -44,57 +44,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEF7CA"/>
+        <fgColor rgb="00F0E5F4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEF9ED"/>
+        <fgColor rgb="00CFDDF6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EBDED0"/>
+        <fgColor rgb="00ECECE2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8FCE5"/>
+        <fgColor rgb="00EDE7E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8FDE6"/>
+        <fgColor rgb="00F5EEEC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD7CA"/>
+        <fgColor rgb="00C8D5E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD9E4"/>
+        <fgColor rgb="00CFDADF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FBD1D7"/>
+        <fgColor rgb="00CDEDEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FEF5E1"/>
+        <fgColor rgb="00DAFEED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8E3ED"/>
+        <fgColor rgb="00E1EFED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEF3E4"/>
+        <fgColor rgb="00D6EDDC"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,62 +605,62 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Manishi</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
           <t>Pooja</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>Anil</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Rajesh</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>Prayas</t>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>NKGiri</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>Tarun</t>
         </is>
       </c>
     </row>
@@ -670,64 +670,64 @@
           <t>Period 2</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>Kundan</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Anuja</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>Nitin</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Priya</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Hasan</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Prayash</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>NKGiri</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>Rajesh</t>
         </is>
       </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>Giri</t>
+          <t>Pradeep</t>
         </is>
       </c>
     </row>
@@ -737,64 +737,64 @@
           <t>Period 3</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Kundan</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Prayas</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
           <t>Nitin</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="H4" s="12" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="J4" s="10" t="inlineStr">
-        <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="K4" s="7" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="L4" s="7" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>Pooja</t>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
         </is>
       </c>
     </row>
@@ -804,64 +804,64 @@
           <t>Period 4</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Prayash</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="L5" s="11" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>Kavita</t>
-        </is>
-      </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>Kundan</t>
         </is>
       </c>
     </row>
@@ -871,64 +871,64 @@
           <t>Period 5</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Priya</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>NKGiri</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="I6" s="12" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Anil</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>Rajesh</t>
-        </is>
-      </c>
-      <c r="I6" s="10" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Pooja</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>Kavita</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>Vikas</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="M6" s="11" t="inlineStr">
-        <is>
-          <t>Manishi</t>
         </is>
       </c>
     </row>
@@ -938,64 +938,64 @@
           <t>Period 6</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
-        <is>
-          <t>Giri</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Manishi</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>Bhushan</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>Kundan</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>NKGiri</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Manpreet</t>
+        </is>
+      </c>
+      <c r="K7" s="12" t="inlineStr">
         <is>
           <t>Pradeep</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Mamta</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="H7" s="9" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="M7" s="13" t="inlineStr">
         <is>
           <t>Manmeet</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>Tarun</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>Gunjan</t>
-        </is>
-      </c>
-      <c r="K7" s="6" t="inlineStr">
-        <is>
-          <t>Gaurav</t>
-        </is>
-      </c>
-      <c r="L7" s="12" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="inlineStr">
-        <is>
-          <t>Deepak</t>
         </is>
       </c>
     </row>
@@ -1005,64 +1005,64 @@
           <t>Period 7</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>Manpreet</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>Deepak</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Gunjan</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
         <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pooja</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>Prayas</t>
-        </is>
-      </c>
-      <c r="J8" s="12" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Bhushan</t>
-        </is>
-      </c>
-      <c r="L8" s="11" t="inlineStr">
-        <is>
-          <t>Manishi</t>
-        </is>
-      </c>
-      <c r="M8" s="8" t="inlineStr">
-        <is>
-          <t>Mamta</t>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>Ashish</t>
         </is>
       </c>
     </row>
@@ -1072,64 +1072,64 @@
           <t>Period 8</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Rajesh</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>Pradeep</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Anuja</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>Manmeet</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Narendra</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>Nitin</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>Manpreet</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Prayas</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Savita</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
+        <is>
+          <t>Mamta</t>
+        </is>
+      </c>
+      <c r="J9" s="13" t="inlineStr">
+        <is>
+          <t>Himanshu</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>NKGiri</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="inlineStr">
         <is>
           <t>Tarun</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>Deepak</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Manishi</t>
-        </is>
-      </c>
-      <c r="I9" s="12" t="inlineStr">
-        <is>
-          <t>Narendra</t>
-        </is>
-      </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>Pradeep</t>
-        </is>
-      </c>
-      <c r="K9" s="12" t="inlineStr">
-        <is>
-          <t>Giri</t>
-        </is>
-      </c>
-      <c r="L9" s="8" t="inlineStr">
-        <is>
-          <t>Nitin</t>
-        </is>
-      </c>
-      <c r="M9" s="9" t="inlineStr">
-        <is>
-          <t>Himanshu</t>
         </is>
       </c>
     </row>
